--- a/static/excel/importToCC.xlsx
+++ b/static/excel/importToCC.xlsx
@@ -2,220 +2,99 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>主机名称</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>机型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>内网IP</t>
-  </si>
-  <si>
-    <t>外网IP</t>
-  </si>
-  <si>
-    <t>负责人</t>
-  </si>
-  <si>
-    <t>操作系统</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">【说明】数据格式（可删除）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>SN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">：资产编号，如2102310WUE10F8000045，须保证其唯一性
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主机名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">：如tjtx-98-151.ttos.org
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>内网IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">：如192.168.1.100
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>外网IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">：如121.60.5.69，没有则留空
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>负责人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">：如abc，没有则留空
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>操作系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="1"/>
-      </rPr>
-      <t>：如CentOS 6.6 (Final) 64-bit</t>
-    </r>
-    <rPh sb="9" eb="10">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>shan'chu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网网关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网网卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGP IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGP网关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBP网卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公网IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公网网关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公网网卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILO IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="DengXian (正文)"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,22 +114,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -276,7 +154,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -336,71 +214,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -533,8 +411,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -570,25 +448,67 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="61.75" customWidth="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="114" customHeight="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,39 +527,34 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>